--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Equities/EquitySABRPublisher.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Equities/EquitySABRPublisher.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr hidePivotFieldList="1" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Equities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Equities\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276F37CE-FB43-4774-8E3D-A76A034E3A23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="-45" windowWidth="16455" windowHeight="9315" tabRatio="275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" tabRatio="275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BHPData-1Y" sheetId="9" r:id="rId1"/>
@@ -26,7 +27,15 @@
     <definedName name="IRCurve6m">[1]IRBootstrap6m!$D$5</definedName>
     <definedName name="StrikeQuoteUnits">[2]Configuration!$D$2:$D$4</definedName>
   </definedNames>
-  <calcPr calcId="171027" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2125,7 +2134,7 @@
       </c>
       <c r="L4" s="38">
         <f ca="1">L10+1</f>
-        <v>43130.784930902781</v>
+        <v>43641.677466203706</v>
       </c>
       <c r="M4" s="30"/>
     </row>
@@ -2352,7 +2361,7 @@
       </c>
       <c r="L10" s="7">
         <f ca="1">NOW()</f>
-        <v>43129.784930902781</v>
+        <v>43640.677466203706</v>
       </c>
       <c r="M10" s="30"/>
       <c r="O10" s="20"/>
@@ -2393,7 +2402,7 @@
       </c>
       <c r="L11" s="9">
         <f ca="1">L10</f>
-        <v>43129.784930902781</v>
+        <v>43640.677466203706</v>
       </c>
       <c r="M11" s="30"/>
       <c r="O11" s="20"/>
@@ -2877,7 +2886,7 @@
       </c>
       <c r="L24" s="12">
         <f ca="1">L10</f>
-        <v>43129.784930902781</v>
+        <v>43640.677466203706</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="13.5" thickBot="1">
